--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.011608234434321407</v>
+        <v>0.010640881564794646</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0026692674914018388</v>
+        <v>0.0024468285337850559</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0069756875507225868</v>
+        <v>-0.0063943802548290518</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0084814426429332679</v>
+        <v>0.0077746557560221807</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0034995585849622313</v>
+        <v>-0.0032079287028820569</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0068292000247849594</v>
+        <v>0.0062601000227195669</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0099886536374174661</v>
+        <v>0.0091562658342993486</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0018509116426544125</v>
+        <v>0.0016966690057665934</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.005271278471863039</v>
+        <v>-0.0048320052658745449</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.010876023663747431</v>
+        <v>0.0099696883584351192</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0078885309064337383</v>
+        <v>-0.0072311533308975495</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0041190638934999468</v>
+        <v>-0.0037758085690416388</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0039055646472526684</v>
+        <v>0.0035801009266482609</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0016909863591786367</v>
+        <v>0.0015500708292470466</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0061324809608562791</v>
+        <v>-0.0056214408807848948</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0050108908804561425</v>
+        <v>0.0045933166404180381</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.00030998114522143294</v>
+        <v>-0.00028414938311965843</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0046076785207219695</v>
+        <v>0.0042237053106617961</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0061152787860862812</v>
+        <v>0.0056056722205790332</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0016839769804196381</v>
+        <v>-0.0015436455653846382</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0053551203436787709</v>
+        <v>-0.0049088603150388987</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.017784105564079222</v>
+        <v>-0.016302096767072588</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.013295922782815328</v>
+        <v>0.01218792921758069</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.015560913549753391</v>
+        <v>0.014264170753940625</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0035063730715905184</v>
+        <v>-0.0032141753156246233</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0066058017787797019</v>
+        <v>-0.0060553182972147845</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.014590637628469377</v>
+        <v>0.013374751159430209</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.010303005699425188</v>
+        <v>0.009444421891139726</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0029077314791599862</v>
+        <v>0.0026654205225633831</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.004528832427383167</v>
+        <v>-0.0041514297251012688</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0011468771684528256</v>
+        <v>-0.00105130407108181</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.017166410621421019</v>
+        <v>-0.015735876402969279</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0065456863875835991</v>
+        <v>-0.0060002125219516256</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.011895351025785816</v>
+        <v>0.010904071773636975</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0028673491794609374</v>
+        <v>-0.002628403414505931</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.0064194144939486442</v>
+        <v>0.0058844632861195512</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.0022078909546939252</v>
+        <v>-0.0020239000418027508</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0037618715154947024</v>
+        <v>0.0034483822225368221</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.007204525786306315</v>
+        <v>0.0066041486374474323</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0036978587703225818</v>
+        <v>-0.0033897038727956907</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.0065714096769997343</v>
+        <v>0.0060237922039163838</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.002609994004921512</v>
+        <v>0.0023924945045113999</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0046332834746866114</v>
+        <v>-0.0042471765184627364</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.003210280669707688</v>
+        <v>-0.0029427572805653668</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.0058866641638090633</v>
+        <v>0.0053961088168250071</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.0018059426962118708</v>
+        <v>-0.0016554474715275991</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.008045043385661782</v>
+        <v>0.0073746231035232979</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0036360756231084146</v>
+        <v>-0.0033330693211826856</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0064988841386356688</v>
+        <v>0.0059573104604160321</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0071200729095466375</v>
+        <v>-0.0065267335004177973</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0073245949022346657</v>
+        <v>0.0067142119937151079</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-1.6660155498310347e-05</v>
+        <v>-1.5271809206768294e-05</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0087703692776156805</v>
+        <v>-0.008039505171147654</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.0043783521313664198</v>
+        <v>0.0040134894537525168</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.00085628944324597778</v>
+        <v>0.00078493198964210698</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.005974257118421894</v>
+        <v>0.0054764023585534005</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0055210489993098577</v>
+        <v>-0.0050609615827007237</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.0038727886553972801</v>
+        <v>-0.00355005626744756</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.0033094924399272307</v>
+        <v>0.0030337014032665865</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0013542549774433754</v>
+        <v>-0.0012414003959897724</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.0050981097891853178</v>
+        <v>-0.0046732673067532426</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.010974530789384179</v>
+        <v>0.010059986556935477</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.005158154847595825</v>
+        <v>-0.0047283086102961613</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.0016782734174038694</v>
+        <v>-0.0015384172992868872</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0041246516698981994</v>
+        <v>-0.0037809306974066481</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0033090902656119636</v>
+        <v>0.0030333327434776125</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.0025368097450476634</v>
+        <v>-0.0023254089329603767</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.016082195973500357</v>
+        <v>0.014742012975708624</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.0010432867412272229</v>
+        <v>-0.00095634617945833389</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.007418125352908006</v>
+        <v>0.0067999482401656375</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0065167655747365716</v>
+        <v>-0.0059737017768418665</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0016074695708562792</v>
+        <v>0.0014735137732849179</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.009923273950189021</v>
+        <v>-0.0090963344543399938</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0032990359077315623</v>
+        <v>0.0030241162487538997</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.0011688626595459106</v>
+        <v>-0.0010714574379170894</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0075827396799263702</v>
+        <v>0.0069508447065991241</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0069199634417025646</v>
+        <v>-0.0063432998215606773</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0077540731361548099</v>
+        <v>-0.0071079003748085456</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.01098354655666911</v>
+        <v>0.010068251010280027</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0019620363823262543</v>
+        <v>-0.0017985333504657308</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.002234222861878965</v>
+        <v>-0.0020480376233890929</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.0058864177857312627</v>
+        <v>-0.0053958829702537014</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0051806804887483682</v>
+        <v>0.0047489571146860088</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0032072367476093933</v>
+        <v>0.0029399670186419369</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0022550547912867092</v>
+        <v>-0.0020671335586794626</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.00042666778936800709</v>
+        <v>-0.00039111214025405738</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0076657467961815939</v>
+        <v>-0.0070269345631664981</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0046988353624509149</v>
+        <v>-0.0043072657489133526</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0024706704548601299</v>
+        <v>-0.0022647812502885334</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0025139758728846828</v>
+        <v>-0.0023044778834776236</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0072960453395235769</v>
+        <v>0.0066880415612299848</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.0044451425948647261</v>
+        <v>-0.0040747140452926656</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.00046121785252220548</v>
+        <v>0.00042278303147866292</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-4.023917067400018e-05</v>
+        <v>-3.688590645109513e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.0076168771820945835</v>
+        <v>0.0069821374169200534</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.0011657620353273113</v>
+        <v>0.0010686151990500492</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.002135196357164304</v>
+        <v>0.0019572633274006351</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0028369436672803922</v>
+        <v>-0.0026005316950070134</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0029213193109185742</v>
+        <v>0.0026778760350087416</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.009097357562830713</v>
+        <v>-0.008339244432594789</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.0060284148793465636</v>
+        <v>0.0055260469727343442</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.0044335696509609918</v>
+        <v>0.004064105513380864</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.0041355584833845938</v>
+        <v>0.0037909286097692202</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.0054333150252295626</v>
+        <v>0.0049805387731270967</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.0025794898983305115</v>
+        <v>0.0023645324068029411</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0020368871492844887</v>
+        <v>0.0018671465535107651</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.00065167281429276414</v>
+        <v>-0.00059736674643508236</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.00086114602243633764</v>
+        <v>-0.00078938385389999699</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0064006616801648153</v>
+        <v>-0.0058672732068177219</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.0015818442591898074</v>
+        <v>-0.0014500239042573027</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.0060865731155586023</v>
+        <v>-0.0055793586892620567</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0081074793351008922</v>
+        <v>0.0074318560571757369</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0055677012198751263</v>
+        <v>-0.005103726118218882</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0030663648858753056</v>
+        <v>0.0028108344787190209</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.0040193518454388066</v>
+        <v>-0.0036844058583188899</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.01310929514590839</v>
+        <v>-0.012016853883749401</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.0080227036748775765</v>
+        <v>-0.0073541450353044741</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.0073231497716623462</v>
+        <v>-0.0067128872906904724</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.0030639015192790719</v>
+        <v>-0.0028085763926724572</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.00046223959267435721</v>
+        <v>0.00042371962661819085</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.00081324058306150859</v>
+        <v>0.00074547053447301947</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0010640610731190436</v>
+        <v>-0.00097538931702580156</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.00029325819839653988</v>
+        <v>0.00026882001519681897</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0079123251824827628</v>
+        <v>-0.0072529647506091588</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0025059826302062105</v>
+        <v>0.0022971507443557276</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0003392249769061384</v>
+        <v>-0.00031095622883060836</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.0024108665413013486</v>
+        <v>0.0022099609961929445</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.021198555981164685</v>
+        <v>-0.019432009649400922</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0043587005829568426</v>
+        <v>-0.0039954755343771242</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.01390873130003567</v>
+        <v>0.012749670358366022</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.0088597468460168138</v>
+        <v>0.0081214346088487599</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.0088965098555891242</v>
+        <v>0.0081551340342899958</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.00091480526263135187</v>
+        <v>0.00083857149074539894</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0085887570632040278</v>
+        <v>-0.0078730273079370278</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0037957211870255497</v>
+        <v>-0.0034794110881067042</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.00072315175290005307</v>
+        <v>0.00066288910682502089</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.005476788657566678</v>
+        <v>-0.0050203896027694733</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.0017817803858993647</v>
+        <v>-0.0016332986870744165</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0011679839266046377</v>
+        <v>-0.0010706519327209063</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0019406758537193203</v>
+        <v>0.0017789528659093862</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.0041326681642887275</v>
+        <v>0.003788279150597984</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.0026833722485896522</v>
+        <v>0.0024597578945405041</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.0044209674926784098</v>
+        <v>0.0040525535349551778</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.0017113651624521276</v>
+        <v>0.0015687513989144641</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.0083744898771596077</v>
+        <v>0.0076766157207295849</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.0085825520608129036</v>
+        <v>0.0078673393890785065</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0030191139816808099</v>
+        <v>0.0027675211498740804</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0070466757190359997</v>
+        <v>0.006459452742449634</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.004970204245566559</v>
+        <v>0.0045560205584359997</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0028700618001556433</v>
+        <v>-0.0026308899834759925</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.0012880161621580538</v>
+        <v>0.0011806814819782102</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0027113145915586834</v>
+        <v>0.0024853717089288047</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0051835169847592316</v>
+        <v>0.0047515572360292968</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.00013395665569576609</v>
+        <v>0.00012279360105448001</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0060752452056799799</v>
+        <v>-0.0055689747718733335</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0042450694624607682</v>
+        <v>-0.0038913136739223697</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0078505403039564603</v>
+        <v>0.0071963286119600817</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0034742853817187891</v>
+        <v>-0.003184761599908853</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0078836600575731275</v>
+        <v>-0.0072266883861087094</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0033918376309680642</v>
+        <v>-0.0031091844950540681</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.0056974993661028372</v>
+        <v>-0.0052227077522609411</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.001602617331517564</v>
+        <v>0.0014690658872244661</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0025665283102354053</v>
+        <v>-0.0023526509510490984</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0052252443556790873</v>
+        <v>-0.0047898073260391749</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.003999741318581912</v>
+        <v>-0.0036664295420334309</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.0009924155502295251</v>
+        <v>-0.00090971425437703923</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0032028721469715138</v>
+        <v>0.002935966134723883</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.010132379697597088</v>
+        <v>0.0092880147227973192</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0039946849729458056</v>
+        <v>0.0036617945585337291</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0019171486562790663</v>
+        <v>-0.0017573862682558061</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.0026621059229754718</v>
+        <v>0.0024402637627275181</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0073696508479117462</v>
+        <v>-0.0067555132772524062</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0044356609574000561</v>
+        <v>0.0040660225442834402</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.006053484314353888</v>
+        <v>-0.0055490272881576624</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.010640881564794646</v>
+        <v>0.011608234434321407</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0024468285337850559</v>
+        <v>0.0026692674914018388</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0063943802548290518</v>
+        <v>-0.0069756875507225868</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0077746557560221807</v>
+        <v>0.0084814426429332679</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0032079287028820569</v>
+        <v>-0.0034995585849622313</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0062601000227195669</v>
+        <v>0.0068292000247849594</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0091562658342993486</v>
+        <v>0.0099886536374174661</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0016966690057665934</v>
+        <v>0.0018509116426544125</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0048320052658745449</v>
+        <v>-0.005271278471863039</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0099696883584351192</v>
+        <v>0.010876023663747431</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0072311533308975495</v>
+        <v>-0.0078885309064337383</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0037758085690416388</v>
+        <v>-0.0041190638934999468</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0035801009266482609</v>
+        <v>0.0039055646472526684</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0015500708292470466</v>
+        <v>0.0016909863591786367</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0056214408807848948</v>
+        <v>-0.0061324809608562791</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0045933166404180381</v>
+        <v>0.0050108908804561425</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.00028414938311965843</v>
+        <v>-0.00030998114522143294</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0042237053106617961</v>
+        <v>0.0046076785207219695</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0056056722205790332</v>
+        <v>0.0061152787860862812</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0015436455653846382</v>
+        <v>-0.0016839769804196381</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0049088603150388987</v>
+        <v>-0.0053551203436787709</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.016302096767072588</v>
+        <v>-0.017784105564079222</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.01218792921758069</v>
+        <v>0.013295922782815328</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.014264170753940625</v>
+        <v>0.015560913549753391</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0032141753156246233</v>
+        <v>-0.0035063730715905184</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0060553182972147845</v>
+        <v>-0.0066058017787797019</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.013374751159430209</v>
+        <v>0.014590637628469377</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.009444421891139726</v>
+        <v>0.010303005699425188</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0026654205225633831</v>
+        <v>0.0029077314791599862</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0041514297251012688</v>
+        <v>-0.004528832427383167</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.00105130407108181</v>
+        <v>-0.0011468771684528256</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.015735876402969279</v>
+        <v>-0.017166410621421019</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0060002125219516256</v>
+        <v>-0.0065456863875835991</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.010904071773636975</v>
+        <v>0.011895351025785816</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.002628403414505931</v>
+        <v>-0.0028673491794609374</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.0058844632861195512</v>
+        <v>0.0064194144939486442</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.0020239000418027508</v>
+        <v>-0.0022078909546939252</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0034483822225368221</v>
+        <v>0.0037618715154947024</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0066041486374474323</v>
+        <v>0.007204525786306315</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0033897038727956907</v>
+        <v>-0.0036978587703225818</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.0060237922039163838</v>
+        <v>0.0065714096769997343</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.0023924945045113999</v>
+        <v>0.002609994004921512</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0042471765184627364</v>
+        <v>-0.0046332834746866114</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0029427572805653668</v>
+        <v>-0.003210280669707688</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.0053961088168250071</v>
+        <v>0.0058866641638090633</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.0016554474715275991</v>
+        <v>-0.0018059426962118708</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0073746231035232979</v>
+        <v>0.008045043385661782</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0033330693211826856</v>
+        <v>-0.0036360756231084146</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0059573104604160321</v>
+        <v>0.0064988841386356688</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0065267335004177973</v>
+        <v>-0.0071200729095466375</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0067142119937151079</v>
+        <v>0.0073245949022346657</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-1.5271809206768294e-05</v>
+        <v>-1.6660155498310347e-05</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.008039505171147654</v>
+        <v>-0.0087703692776156805</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.0040134894537525168</v>
+        <v>0.0043783521313664198</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.00078493198964210698</v>
+        <v>0.00085628944324597778</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0054764023585534005</v>
+        <v>0.005974257118421894</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0050609615827007237</v>
+        <v>-0.0055210489993098577</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.00355005626744756</v>
+        <v>-0.0038727886553972801</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.0030337014032665865</v>
+        <v>0.0033094924399272307</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0012414003959897724</v>
+        <v>-0.0013542549774433754</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.0046732673067532426</v>
+        <v>-0.0050981097891853178</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.010059986556935477</v>
+        <v>0.010974530789384179</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0047283086102961613</v>
+        <v>-0.005158154847595825</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.0015384172992868872</v>
+        <v>-0.0016782734174038694</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0037809306974066481</v>
+        <v>-0.0041246516698981994</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0030333327434776125</v>
+        <v>0.0033090902656119636</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.0023254089329603767</v>
+        <v>-0.0025368097450476634</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.014742012975708624</v>
+        <v>0.016082195973500357</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.00095634617945833389</v>
+        <v>-0.0010432867412272229</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.0067999482401656375</v>
+        <v>0.007418125352908006</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0059737017768418665</v>
+        <v>-0.0065167655747365716</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0014735137732849179</v>
+        <v>0.0016074695708562792</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0090963344543399938</v>
+        <v>-0.009923273950189021</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0030241162487538997</v>
+        <v>0.0032990359077315623</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.0010714574379170894</v>
+        <v>-0.0011688626595459106</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0069508447065991241</v>
+        <v>0.0075827396799263702</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0063432998215606773</v>
+        <v>-0.0069199634417025646</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0071079003748085456</v>
+        <v>-0.0077540731361548099</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.010068251010280027</v>
+        <v>0.01098354655666911</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0017985333504657308</v>
+        <v>-0.0019620363823262543</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0020480376233890929</v>
+        <v>-0.002234222861878965</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.0053958829702537014</v>
+        <v>-0.0058864177857312627</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0047489571146860088</v>
+        <v>0.0051806804887483682</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0029399670186419369</v>
+        <v>0.0032072367476093933</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0020671335586794626</v>
+        <v>-0.0022550547912867092</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.00039111214025405738</v>
+        <v>-0.00042666778936800709</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0070269345631664981</v>
+        <v>-0.0076657467961815939</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0043072657489133526</v>
+        <v>-0.0046988353624509149</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0022647812502885334</v>
+        <v>-0.0024706704548601299</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0023044778834776236</v>
+        <v>-0.0025139758728846828</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0066880415612299848</v>
+        <v>0.0072960453395235769</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.0040747140452926656</v>
+        <v>-0.0044451425948647261</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.00042278303147866292</v>
+        <v>0.00046121785252220548</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-3.688590645109513e-05</v>
+        <v>-4.023917067400018e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.0069821374169200534</v>
+        <v>0.0076168771820945835</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.0010686151990500492</v>
+        <v>0.0011657620353273113</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.0019572633274006351</v>
+        <v>0.002135196357164304</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0026005316950070134</v>
+        <v>-0.0028369436672803922</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0026778760350087416</v>
+        <v>0.0029213193109185742</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.008339244432594789</v>
+        <v>-0.009097357562830713</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.0055260469727343442</v>
+        <v>0.0060284148793465636</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.004064105513380864</v>
+        <v>0.0044335696509609918</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.0037909286097692202</v>
+        <v>0.0041355584833845938</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.0049805387731270967</v>
+        <v>0.0054333150252295626</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.0023645324068029411</v>
+        <v>0.0025794898983305115</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0018671465535107651</v>
+        <v>0.0020368871492844887</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.00059736674643508236</v>
+        <v>-0.00065167281429276414</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.00078938385389999699</v>
+        <v>-0.00086114602243633764</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0058672732068177219</v>
+        <v>-0.0064006616801648153</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.0014500239042573027</v>
+        <v>-0.0015818442591898074</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.0055793586892620567</v>
+        <v>-0.0060865731155586023</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0074318560571757369</v>
+        <v>0.0081074793351008922</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.005103726118218882</v>
+        <v>-0.0055677012198751263</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0028108344787190209</v>
+        <v>0.0030663648858753056</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.0036844058583188899</v>
+        <v>-0.0040193518454388066</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.012016853883749401</v>
+        <v>-0.01310929514590839</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.0073541450353044741</v>
+        <v>-0.0080227036748775765</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.0067128872906904724</v>
+        <v>-0.0073231497716623462</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.0028085763926724572</v>
+        <v>-0.0030639015192790719</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.00042371962661819085</v>
+        <v>0.00046223959267435721</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.00074547053447301947</v>
+        <v>0.00081324058306150859</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.00097538931702580156</v>
+        <v>-0.0010640610731190436</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.00026882001519681897</v>
+        <v>0.00029325819839653988</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0072529647506091588</v>
+        <v>-0.0079123251824827628</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0022971507443557276</v>
+        <v>0.0025059826302062105</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.00031095622883060836</v>
+        <v>-0.0003392249769061384</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.0022099609961929445</v>
+        <v>0.0024108665413013486</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.019432009649400922</v>
+        <v>-0.021198555981164685</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0039954755343771242</v>
+        <v>-0.0043587005829568426</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.012749670358366022</v>
+        <v>0.01390873130003567</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.0081214346088487599</v>
+        <v>0.0088597468460168138</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.0081551340342899958</v>
+        <v>0.0088965098555891242</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.00083857149074539894</v>
+        <v>0.00091480526263135187</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0078730273079370278</v>
+        <v>-0.0085887570632040278</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0034794110881067042</v>
+        <v>-0.0037957211870255497</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.00066288910682502089</v>
+        <v>0.00072315175290005307</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.0050203896027694733</v>
+        <v>-0.005476788657566678</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.0016332986870744165</v>
+        <v>-0.0017817803858993647</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0010706519327209063</v>
+        <v>-0.0011679839266046377</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0017789528659093862</v>
+        <v>0.0019406758537193203</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.003788279150597984</v>
+        <v>0.0041326681642887275</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.0024597578945405041</v>
+        <v>0.0026833722485896522</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.0040525535349551778</v>
+        <v>0.0044209674926784098</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.0015687513989144641</v>
+        <v>0.0017113651624521276</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.0076766157207295849</v>
+        <v>0.0083744898771596077</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.0078673393890785065</v>
+        <v>0.0085825520608129036</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0027675211498740804</v>
+        <v>0.0030191139816808099</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.006459452742449634</v>
+        <v>0.0070466757190359997</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.0045560205584359997</v>
+        <v>0.004970204245566559</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0026308899834759925</v>
+        <v>-0.0028700618001556433</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.0011806814819782102</v>
+        <v>0.0012880161621580538</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0024853717089288047</v>
+        <v>0.0027113145915586834</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0047515572360292968</v>
+        <v>0.0051835169847592316</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.00012279360105448001</v>
+        <v>0.00013395665569576609</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0055689747718733335</v>
+        <v>-0.0060752452056799799</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0038913136739223697</v>
+        <v>-0.0042450694624607682</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0071963286119600817</v>
+        <v>0.0078505403039564603</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.003184761599908853</v>
+        <v>-0.0034742853817187891</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0072266883861087094</v>
+        <v>-0.0078836600575731275</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0031091844950540681</v>
+        <v>-0.0033918376309680642</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.0052227077522609411</v>
+        <v>-0.0056974993661028372</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.0014690658872244661</v>
+        <v>0.001602617331517564</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0023526509510490984</v>
+        <v>-0.0025665283102354053</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0047898073260391749</v>
+        <v>-0.0052252443556790873</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0036664295420334309</v>
+        <v>-0.003999741318581912</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.00090971425437703923</v>
+        <v>-0.0009924155502295251</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.002935966134723883</v>
+        <v>0.0032028721469715138</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.0092880147227973192</v>
+        <v>0.010132379697597088</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0036617945585337291</v>
+        <v>0.0039946849729458056</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0017573862682558061</v>
+        <v>-0.0019171486562790663</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.0024402637627275181</v>
+        <v>0.0026621059229754718</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0067555132772524062</v>
+        <v>-0.0073696508479117462</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0040660225442834402</v>
+        <v>0.0044356609574000561</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0055490272881576624</v>
+        <v>-0.006053484314353888</v>
       </c>
     </row>
   </sheetData>
